--- a/scores.xlsx
+++ b/scores.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.725</v>
       </c>
       <c r="D8" t="n">
         <v>0.78</v>
@@ -719,10 +719,10 @@
         <v>0.985</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -737,10 +737,10 @@
         <v>0.68</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="F15" t="n">
         <v>0.68</v>
@@ -757,10 +757,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -775,10 +775,10 @@
         <v>0.88</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -793,10 +793,10 @@
         <v>0.615</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.805</v>
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -811,10 +811,10 @@
         <v>0.44</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.555</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="F19" t="n">
         <v>0.435</v>
@@ -831,10 +831,10 @@
         <v>0.72</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.785</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -849,10 +849,10 @@
         <v>0.955</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.955</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0.955</v>
       </c>
       <c r="F21" t="n">
         <v>0.955</v>
@@ -869,10 +869,10 @@
         <v>0.135</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0.965</v>
       </c>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -887,10 +887,10 @@
         <v>0.615</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.765</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -905,10 +905,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -923,10 +923,10 @@
         <v>0.68</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="F25" t="n">
         <v>0.665</v>
@@ -1118,7 +1118,7 @@
         <v>0.85</v>
       </c>
       <c r="E35" t="n">
-        <v>0.865</v>
+        <v>0.875</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -1175,10 +1175,10 @@
         <v>0.99</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F38" t="inlineStr"/>
     </row>
@@ -1193,10 +1193,10 @@
         <v>0.99</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F39" t="n">
         <v>0.99</v>
@@ -1213,10 +1213,10 @@
         <v>0.865</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.965</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="F40" t="inlineStr"/>
     </row>
@@ -1231,10 +1231,10 @@
         <v>0.975</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="F41" t="inlineStr"/>
     </row>
@@ -1249,10 +1249,10 @@
         <v>0.77</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
       <c r="F42" t="inlineStr"/>
     </row>
@@ -1267,10 +1267,10 @@
         <v>0.67</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F43" t="n">
         <v>0.66</v>
@@ -1287,10 +1287,10 @@
         <v>0.88</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F44" t="inlineStr"/>
     </row>
@@ -1325,10 +1325,10 @@
         <v>0.265</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F46" t="inlineStr"/>
     </row>
@@ -1343,10 +1343,10 @@
         <v>0.775</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="F47" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.89</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F48" t="inlineStr"/>
     </row>
@@ -1379,10 +1379,10 @@
         <v>0.845</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.895</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F49" t="n">
         <v>0.845</v>
@@ -1403,10 +1403,10 @@
         <v>0.99</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F50" t="inlineStr"/>
     </row>
@@ -1421,10 +1421,10 @@
         <v>0.86</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="F51" t="n">
         <v>0.8599999999999999</v>
@@ -1441,10 +1441,10 @@
         <v>0.845</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.965</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F52" t="inlineStr"/>
     </row>
@@ -1459,10 +1459,10 @@
         <v>0.885</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F53" t="inlineStr"/>
     </row>
@@ -1477,10 +1477,10 @@
         <v>0.645</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0.855</v>
       </c>
       <c r="F54" t="inlineStr"/>
     </row>
@@ -1495,10 +1495,10 @@
         <v>0.395</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0.435</v>
       </c>
       <c r="F55" t="n">
         <v>0.39</v>
@@ -1515,10 +1515,10 @@
         <v>0.74</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.785</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="F56" t="inlineStr"/>
     </row>
@@ -1553,10 +1553,10 @@
         <v>0.115</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="F58" t="inlineStr"/>
     </row>
@@ -1571,10 +1571,10 @@
         <v>0.645</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.765</v>
       </c>
       <c r="F59" t="inlineStr"/>
     </row>
@@ -1589,10 +1589,10 @@
         <v>0.79</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F60" t="inlineStr"/>
     </row>
@@ -1607,10 +1607,10 @@
         <v>0.91</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F61" t="n">
         <v>0.905</v>
@@ -1631,10 +1631,10 @@
         <v>0.99</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F62" t="inlineStr"/>
     </row>
@@ -1649,10 +1649,10 @@
         <v>0.98</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F63" t="n">
         <v>0.98</v>
@@ -1669,10 +1669,10 @@
         <v>0.875</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F64" t="inlineStr"/>
     </row>
@@ -1687,10 +1687,10 @@
         <v>0.995</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="F65" t="inlineStr"/>
     </row>
@@ -1705,10 +1705,10 @@
         <v>0.735</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="F66" t="inlineStr"/>
     </row>
@@ -1723,10 +1723,10 @@
         <v>0.645</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0.885</v>
       </c>
       <c r="F67" t="n">
         <v>0.635</v>
@@ -1743,10 +1743,10 @@
         <v>0.85</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="F68" t="inlineStr"/>
     </row>
@@ -1781,10 +1781,10 @@
         <v>0.285</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.915</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F70" t="inlineStr"/>
     </row>
@@ -1799,10 +1799,10 @@
         <v>0.86</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="F71" t="inlineStr"/>
     </row>
@@ -1817,10 +1817,10 @@
         <v>0.885</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F72" t="inlineStr"/>
     </row>
@@ -1835,23 +1835,481 @@
         <v>0.9</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F73" t="n">
         <v>0.9</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>army</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>cause_of_death</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>education_institution</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>educ_level</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>family_roles</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>occupation_phrase</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>place_lived_last</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>army</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>cause_of_death</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>education_institution</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>educ_level</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>family_roles</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>occupation_phrase</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>place_lived_last</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A26:A37"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A62:A73"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A74:A85"/>
     <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A86:A97"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>f1_brut</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f1_human_s</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>f1_human_p</t>
         </is>
       </c>
     </row>
@@ -497,6 +507,8 @@
         <v>0.985</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -517,6 +529,12 @@
       <c r="F3" t="n">
         <v>0.745</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -535,6 +553,8 @@
         <v>0.975</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -553,6 +573,8 @@
         <v>0.82</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -571,6 +593,8 @@
         <v>0.825</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -591,6 +615,12 @@
       <c r="F7" t="n">
         <v>0.425</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -609,6 +639,8 @@
         <v>0.87</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -629,6 +661,12 @@
       <c r="F9" t="n">
         <v>0.9500000000000001</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9500000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -647,6 +685,8 @@
         <v>0.965</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -665,6 +705,8 @@
         <v>0.745</v>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -683,6 +725,8 @@
         <v>0.885</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -703,6 +747,12 @@
       <c r="F13" t="n">
         <v>0.66</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7100000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -725,6 +775,8 @@
         <v>0.985</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -745,6 +797,12 @@
       <c r="F15" t="n">
         <v>0.68</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -763,6 +821,8 @@
         <v>0.97</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -781,6 +841,8 @@
         <v>0.885</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -799,6 +861,8 @@
         <v>0.805</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -819,6 +883,12 @@
       <c r="F19" t="n">
         <v>0.435</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -837,6 +907,8 @@
         <v>0.875</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -857,6 +929,12 @@
       <c r="F21" t="n">
         <v>0.955</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.955</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -875,6 +953,8 @@
         <v>0.965</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -893,6 +973,8 @@
         <v>0.775</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -911,6 +993,8 @@
         <v>0.87</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -931,6 +1015,12 @@
       <c r="F25" t="n">
         <v>0.665</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -953,6 +1043,8 @@
         <v>0.99</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -973,6 +1065,12 @@
       <c r="F27" t="n">
         <v>0.99</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -991,6 +1089,8 @@
         <v>0.985</v>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -1009,6 +1109,8 @@
         <v>0.975</v>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -1027,6 +1129,8 @@
         <v>0.97</v>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -1047,6 +1151,12 @@
       <c r="F31" t="n">
         <v>0.665</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -1065,6 +1175,8 @@
         <v>0.995</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1085,6 +1197,12 @@
       <c r="F33" t="n">
         <v>1</v>
       </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -1103,6 +1221,8 @@
         <v>0.985</v>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1121,6 +1241,8 @@
         <v>0.875</v>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -1139,6 +1261,8 @@
         <v>0.925</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -1159,6 +1283,12 @@
       <c r="F37" t="n">
         <v>0.825</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1181,6 +1311,8 @@
         <v>0.99</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -1201,6 +1333,12 @@
       <c r="F39" t="n">
         <v>0.99</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1219,6 +1357,8 @@
         <v>0.985</v>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1237,6 +1377,8 @@
         <v>0.975</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1255,6 +1397,8 @@
         <v>0.945</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1275,6 +1419,12 @@
       <c r="F43" t="n">
         <v>0.66</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -1293,6 +1443,8 @@
         <v>0.97</v>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -1313,6 +1465,12 @@
       <c r="F45" t="n">
         <v>1</v>
       </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -1331,6 +1489,8 @@
         <v>0.98</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -1349,6 +1509,8 @@
         <v>0.83</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1367,6 +1529,8 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -1387,6 +1551,12 @@
       <c r="F49" t="n">
         <v>0.845</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1409,6 +1579,8 @@
         <v>0.99</v>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -1429,6 +1601,12 @@
       <c r="F51" t="n">
         <v>0.8599999999999999</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.8599999999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8599999999999999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -1447,6 +1625,8 @@
         <v>0.98</v>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -1465,6 +1645,8 @@
         <v>0.96</v>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -1483,6 +1665,8 @@
         <v>0.855</v>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -1503,6 +1687,12 @@
       <c r="F55" t="n">
         <v>0.39</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.435</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -1521,6 +1711,8 @@
         <v>0.905</v>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -1541,6 +1733,12 @@
       <c r="F57" t="n">
         <v>1</v>
       </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -1559,6 +1757,8 @@
         <v>0.985</v>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -1577,6 +1777,8 @@
         <v>0.765</v>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -1595,6 +1797,8 @@
         <v>0.88</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -1615,6 +1819,12 @@
       <c r="F61" t="n">
         <v>0.905</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9500000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1637,6 +1847,8 @@
         <v>0.99</v>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -1657,6 +1869,12 @@
       <c r="F63" t="n">
         <v>0.98</v>
       </c>
+      <c r="G63" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -1675,6 +1893,8 @@
         <v>0.99</v>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -1693,6 +1913,8 @@
         <v>0.995</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -1711,6 +1933,8 @@
         <v>0.92</v>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -1731,6 +1955,12 @@
       <c r="F67" t="n">
         <v>0.635</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.8599999999999999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.885</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -1749,6 +1979,8 @@
         <v>0.975</v>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -1769,6 +2001,12 @@
       <c r="F69" t="n">
         <v>1</v>
       </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -1787,6 +2025,8 @@
         <v>0.99</v>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -1805,6 +2045,8 @@
         <v>0.92</v>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -1823,6 +2065,8 @@
         <v>0.95</v>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -1843,6 +2087,12 @@
       <c r="F73" t="n">
         <v>0.9</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1865,6 +2115,8 @@
         <v>1</v>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
@@ -1885,6 +2137,12 @@
       <c r="F75" t="n">
         <v>0.99</v>
       </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
@@ -1903,6 +2161,8 @@
         <v>1</v>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
@@ -1921,6 +2181,8 @@
         <v>1</v>
       </c>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
@@ -1939,6 +2201,8 @@
         <v>1</v>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
@@ -1959,6 +2223,12 @@
       <c r="F79" t="n">
         <v>0.66</v>
       </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
@@ -1977,6 +2247,8 @@
         <v>1</v>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
@@ -1997,6 +2269,12 @@
       <c r="F81" t="n">
         <v>0.995</v>
       </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
@@ -2015,6 +2293,8 @@
         <v>1</v>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
@@ -2033,6 +2313,8 @@
         <v>1</v>
       </c>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
@@ -2051,6 +2333,8 @@
         <v>1</v>
       </c>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
@@ -2071,6 +2355,12 @@
       <c r="F85" t="n">
         <v>0.87</v>
       </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2093,6 +2383,8 @@
         <v>1</v>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
@@ -2113,6 +2405,12 @@
       <c r="F87" t="n">
         <v>0.8149999999999999</v>
       </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
@@ -2131,6 +2429,8 @@
         <v>1</v>
       </c>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
@@ -2149,6 +2449,8 @@
         <v>1</v>
       </c>
       <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
@@ -2167,6 +2469,8 @@
         <v>1</v>
       </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
@@ -2187,6 +2491,12 @@
       <c r="F91" t="n">
         <v>0.545</v>
       </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
@@ -2205,6 +2515,8 @@
         <v>1</v>
       </c>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
@@ -2225,6 +2537,12 @@
       <c r="F93" t="n">
         <v>0.99</v>
       </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
@@ -2243,6 +2561,8 @@
         <v>1</v>
       </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
@@ -2261,6 +2581,8 @@
         <v>1</v>
       </c>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -2279,6 +2601,8 @@
         <v>1</v>
       </c>
       <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
@@ -2298,6 +2622,12 @@
       </c>
       <c r="F97" t="n">
         <v>0.755</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
   <si>
     <t>accuracy_eq_strict</t>
   </si>
@@ -40,13 +40,13 @@
     <t>f1_macro</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_0SHOT</t>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_0SHOT_n</t>
   </si>
   <si>
     <t>TestSet200_v2_plus_blinded_8B_noJSON_yesCoT_0SHOT</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_0SHOT</t>
+    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_0SHOT_n</t>
   </si>
   <si>
     <t>TestSet200_v2_plus_blinded_70B_noJSON_yesCoT_0SHOT</t>
@@ -58,10 +58,10 @@
     <t>TestSet200_v2_plus_blinded_70B_JSON_noCoT_0SHOT</t>
   </si>
   <si>
-    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT</t>
-  </si>
-  <si>
-    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT</t>
+    <t>TestSet200_v2_plus_blinded_8B_JSON_yesCoT_1SHOT_n</t>
+  </si>
+  <si>
+    <t>TestSet200_v2_plus_blinded_70B_JSON_yesCoT_1SHOT_n</t>
   </si>
   <si>
     <t>TestSet200_v2_plus_blinded_8B_JSON_noCoT_0SHOT_noSYSTEM</t>
@@ -115,151 +115,157 @@
     <t>[0.968, 1.002]</t>
   </si>
   <si>
+    <t>[0.7003, 0.8197]</t>
+  </si>
+  <si>
+    <t>[0.9195, 0.9805]</t>
+  </si>
+  <si>
+    <t>[0.8115, 0.9085]</t>
+  </si>
+  <si>
     <t>[0.6841, 0.8059]</t>
   </si>
   <si>
+    <t>[0.5059, 0.6441]</t>
+  </si>
+  <si>
+    <t>[0.7441, 0.8559]</t>
+  </si>
+  <si>
+    <t>[0.926, 0.984]</t>
+  </si>
+  <si>
+    <t>[0.8346, 0.9254]</t>
+  </si>
+  <si>
+    <t>[0.6626, 0.7874]</t>
+  </si>
+  <si>
+    <t>[0.7944, 0.8956]</t>
+  </si>
+  <si>
+    <t>[0.6519, 0.7781]</t>
+  </si>
+  <si>
+    <t>[0.6148, 0.7452]</t>
+  </si>
+  <si>
+    <t>[0.8404, 0.9296]</t>
+  </si>
+  <si>
+    <t>[0.6679, 0.7921]</t>
+  </si>
+  <si>
+    <t>[0.4855, 0.6245]</t>
+  </si>
+  <si>
+    <t>[0.7276, 0.8424]</t>
+  </si>
+  <si>
+    <t>[0.8581, 0.9419]</t>
+  </si>
+  <si>
+    <t>[0.7057, 0.8243]</t>
+  </si>
+  <si>
+    <t>[0.8172, 0.9128]</t>
+  </si>
+  <si>
+    <t>[0.6466, 0.7734]</t>
+  </si>
+  <si>
+    <t>[0.9761, 1.0039]</t>
+  </si>
+  <si>
+    <t>[0.9393, 0.9907]</t>
+  </si>
+  <si>
+    <t>[0.9462, 0.9938]</t>
+  </si>
+  <si>
+    <t>[0.8943, 0.9657]</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.876, 0.954]</t>
+  </si>
+  <si>
+    <t>[0.7775, 0.8825]</t>
+  </si>
+  <si>
+    <t>[0.8058, 0.9042]</t>
+  </si>
+  <si>
+    <t>[0.9532, 0.9968]</t>
+  </si>
+  <si>
+    <t>[0.864, 0.946]</t>
+  </si>
+  <si>
     <t>[0.9326, 0.9874]</t>
   </si>
   <si>
-    <t>[0.7663, 0.8737]</t>
-  </si>
-  <si>
-    <t>[0.6679, 0.7921]</t>
-  </si>
-  <si>
-    <t>[0.5059, 0.6441]</t>
-  </si>
-  <si>
-    <t>[0.7221, 0.8379]</t>
-  </si>
-  <si>
-    <t>[0.9195, 0.9805]</t>
+    <t>[0.7719, 0.8781]</t>
+  </si>
+  <si>
+    <t>[0.8521, 0.9379]</t>
+  </si>
+  <si>
+    <t>[0.7331, 0.8469]</t>
+  </si>
+  <si>
+    <t>[0.3315, 0.4685]</t>
+  </si>
+  <si>
+    <t>[0.9005, 0.9695]</t>
+  </si>
+  <si>
+    <t>[0.9131, 0.9769]</t>
+  </si>
+  <si>
+    <t>[0.9851, 1.0049]</t>
+  </si>
+  <si>
+    <t>[0.9604, 0.9996]</t>
+  </si>
+  <si>
+    <t>[0.8821, 0.9579]</t>
+  </si>
+  <si>
+    <t>[0.9068, 0.9732]</t>
+  </si>
+  <si>
+    <t>[0.8001, 0.8999]</t>
+  </si>
+  <si>
+    <t>[0.5781, 0.7119]</t>
+  </si>
+  <si>
+    <t>[0.6572, 0.7828]</t>
+  </si>
+  <si>
+    <t>[0.7888, 0.8912]</t>
+  </si>
+  <si>
+    <t>[0.87, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.823, 0.917]</t>
+  </si>
+  <si>
+    <t>[0.7552, 0.8648]</t>
+  </si>
+  <si>
+    <t>[0.8882, 0.9618]</t>
   </si>
   <si>
     <t>[0.7386, 0.8514]</t>
   </si>
   <si>
-    <t>[0.6733, 0.7967]</t>
-  </si>
-  <si>
-    <t>[0.8115, 0.9085]</t>
-  </si>
-  <si>
-    <t>[0.6306, 0.7594]</t>
-  </si>
-  <si>
-    <t>[0.6148, 0.7452]</t>
-  </si>
-  <si>
-    <t>[0.8404, 0.9296]</t>
-  </si>
-  <si>
-    <t>[0.4855, 0.6245]</t>
-  </si>
-  <si>
-    <t>[0.7276, 0.8424]</t>
-  </si>
-  <si>
-    <t>[0.926, 0.984]</t>
-  </si>
-  <si>
-    <t>[0.8581, 0.9419]</t>
-  </si>
-  <si>
-    <t>[0.7057, 0.8243]</t>
-  </si>
-  <si>
-    <t>[0.8172, 0.9128]</t>
-  </si>
-  <si>
-    <t>[0.6466, 0.7734]</t>
-  </si>
-  <si>
-    <t>[0.9761, 1.0039]</t>
-  </si>
-  <si>
-    <t>[0.9532, 0.9968]</t>
-  </si>
-  <si>
-    <t>[0.9068, 0.9732]</t>
-  </si>
-  <si>
-    <t>[0.864, 0.946]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8882, 0.9618]</t>
-  </si>
-  <si>
-    <t>[0.8001, 0.8999]</t>
-  </si>
-  <si>
-    <t>[0.823, 0.917]</t>
-  </si>
-  <si>
-    <t>[0.9393, 0.9907]</t>
-  </si>
-  <si>
-    <t>[0.8943, 0.9657]</t>
-  </si>
-  <si>
-    <t>[0.7719, 0.8781]</t>
-  </si>
-  <si>
-    <t>[0.8521, 0.9379]</t>
-  </si>
-  <si>
-    <t>[0.7331, 0.8469]</t>
-  </si>
-  <si>
-    <t>[0.3315, 0.4685]</t>
-  </si>
-  <si>
-    <t>[0.9005, 0.9695]</t>
-  </si>
-  <si>
-    <t>[0.7003, 0.8197]</t>
-  </si>
-  <si>
-    <t>[0.8346, 0.9254]</t>
-  </si>
-  <si>
-    <t>[0.9131, 0.9769]</t>
-  </si>
-  <si>
-    <t>[0.9851, 1.0049]</t>
-  </si>
-  <si>
-    <t>[0.9604, 0.9996]</t>
-  </si>
-  <si>
-    <t>[0.8821, 0.9579]</t>
-  </si>
-  <si>
-    <t>[0.7607, 0.8693]</t>
-  </si>
-  <si>
-    <t>[0.5625, 0.6975]</t>
-  </si>
-  <si>
-    <t>[0.6519, 0.7781]</t>
-  </si>
-  <si>
-    <t>[0.6895, 0.8105]</t>
-  </si>
-  <si>
-    <t>[0.8463, 0.9337]</t>
-  </si>
-  <si>
-    <t>[0.876, 0.954]</t>
-  </si>
-  <si>
     <t>[0.4201, 0.5599]</t>
-  </si>
-  <si>
-    <t>[0.7775, 0.8825]</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
         <v>0.985</v>
       </c>
       <c r="F2">
-        <v>0.9841</v>
+        <v>0.9833000000000002</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -678,28 +684,28 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="D3">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="E3">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="F3">
-        <v>0.7491000000000001</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3">
-        <v>0.7058</v>
+        <v>0.7169</v>
       </c>
       <c r="I3">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="J3">
-        <v>0.7058</v>
+        <v>0.7169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -708,16 +714,16 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.82</v>
+        <v>0.805</v>
       </c>
       <c r="D4">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.975</v>
+        <v>0.965</v>
       </c>
       <c r="F4">
-        <v>0.9611000000000002</v>
+        <v>0.9490999999999998</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -729,16 +735,16 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="D5">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E5">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F5">
-        <v>0.8222</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -750,16 +756,16 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0.585</v>
+        <v>0.59</v>
       </c>
       <c r="D6">
-        <v>0.73</v>
+        <v>0.745</v>
       </c>
       <c r="E6">
-        <v>0.825</v>
+        <v>0.805</v>
       </c>
       <c r="F6">
-        <v>0.7350999999999999</v>
+        <v>0.7423000000000002</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -771,28 +777,28 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0.435</v>
+        <v>0.43</v>
       </c>
       <c r="D7">
         <v>0.575</v>
       </c>
       <c r="E7">
-        <v>0.615</v>
+        <v>0.59</v>
       </c>
       <c r="F7">
-        <v>0.5705</v>
+        <v>0.5797</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
       <c r="H7">
-        <v>0.4515</v>
+        <v>0.4561</v>
       </c>
       <c r="I7">
         <v>0.575</v>
       </c>
       <c r="J7">
-        <v>0.4013</v>
+        <v>0.4054</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -801,16 +807,16 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>0.725</v>
+        <v>0.735</v>
       </c>
       <c r="D8">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="F8">
-        <v>0.7794999999999999</v>
+        <v>0.8031</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -822,28 +828,28 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="D9">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="E9">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="F9">
-        <v>0.9487999999999999</v>
+        <v>0.9551999999999997</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
       </c>
       <c r="H9">
-        <v>0.9686</v>
+        <v>0.9742</v>
       </c>
       <c r="I9">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="J9">
-        <v>0.6457000000000001</v>
+        <v>0.6495</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -852,16 +858,16 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>0.105</v>
+        <v>0.145</v>
       </c>
       <c r="D10">
-        <v>0.795</v>
+        <v>0.88</v>
       </c>
       <c r="E10">
-        <v>0.965</v>
+        <v>0.975</v>
       </c>
       <c r="F10">
-        <v>0.7946000000000001</v>
+        <v>0.8777000000000001</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -873,16 +879,16 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="D11">
-        <v>0.735</v>
+        <v>0.725</v>
       </c>
       <c r="E11">
-        <v>0.745</v>
+        <v>0.73</v>
       </c>
       <c r="F11">
-        <v>0.7335999999999998</v>
+        <v>0.7262</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -894,16 +900,16 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="D12">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="E12">
-        <v>0.885</v>
+        <v>0.85</v>
       </c>
       <c r="F12">
-        <v>0.8597000000000001</v>
+        <v>0.8411</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -915,28 +921,28 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0.675</v>
+        <v>0.68</v>
       </c>
       <c r="D13">
-        <v>0.695</v>
+        <v>0.715</v>
       </c>
       <c r="E13">
-        <v>0.71</v>
+        <v>0.725</v>
       </c>
       <c r="F13">
-        <v>0.6903999999999999</v>
+        <v>0.7133999999999999</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
       </c>
       <c r="H13">
-        <v>0.5256</v>
+        <v>0.6545</v>
       </c>
       <c r="I13">
-        <v>0.695</v>
+        <v>0.715</v>
       </c>
       <c r="J13">
-        <v>0.1342</v>
+        <v>0.1741</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -956,7 +962,7 @@
         <v>0.985</v>
       </c>
       <c r="F14">
-        <v>0.9852000000000003</v>
+        <v>0.9845</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -977,7 +983,7 @@
         <v>0.68</v>
       </c>
       <c r="F15">
-        <v>0.6791999999999999</v>
+        <v>0.6768</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
@@ -1007,10 +1013,10 @@
         <v>0.97</v>
       </c>
       <c r="F16">
-        <v>0.9480999999999998</v>
+        <v>0.9464999999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1028,7 +1034,7 @@
         <v>0.885</v>
       </c>
       <c r="F17">
-        <v>0.8875000000000002</v>
+        <v>0.8837</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1049,10 +1055,10 @@
         <v>0.805</v>
       </c>
       <c r="F18">
-        <v>0.7331</v>
+        <v>0.7308000000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1070,10 +1076,10 @@
         <v>0.575</v>
       </c>
       <c r="F19">
-        <v>0.5597</v>
+        <v>0.5552</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19">
         <v>0.4769</v>
@@ -1100,10 +1106,10 @@
         <v>0.875</v>
       </c>
       <c r="F20">
-        <v>0.7885</v>
+        <v>0.7874000000000001</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1121,10 +1127,10 @@
         <v>0.955</v>
       </c>
       <c r="F21">
-        <v>0.9539</v>
+        <v>0.9542999999999999</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>0.9703000000000001</v>
@@ -1151,7 +1157,7 @@
         <v>0.96</v>
       </c>
       <c r="F22">
-        <v>0.8984000000000003</v>
+        <v>0.8967000000000001</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
@@ -1172,7 +1178,7 @@
         <v>0.775</v>
       </c>
       <c r="F23">
-        <v>0.7637999999999999</v>
+        <v>0.7677</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
@@ -1193,7 +1199,7 @@
         <v>0.87</v>
       </c>
       <c r="F24">
-        <v>0.8644000000000002</v>
+        <v>0.8647999999999999</v>
       </c>
       <c r="G24" t="s">
         <v>51</v>
@@ -1214,7 +1220,7 @@
         <v>0.72</v>
       </c>
       <c r="F25">
-        <v>0.7084999999999999</v>
+        <v>0.7084999999999998</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
@@ -1267,7 +1273,7 @@
         <v>0.99</v>
       </c>
       <c r="F27">
-        <v>0.9892000000000002</v>
+        <v>0.9906999999999999</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -1291,16 +1297,16 @@
         <v>0.87</v>
       </c>
       <c r="D28">
-        <v>0.96</v>
+        <v>0.965</v>
       </c>
       <c r="E28">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="F28">
-        <v>0.9590000000000002</v>
+        <v>0.9661</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1309,19 +1315,19 @@
         <v>21</v>
       </c>
       <c r="C29">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="D29">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="E29">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="F29">
-        <v>0.9769</v>
+        <v>0.9716999999999999</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1330,19 +1336,19 @@
         <v>22</v>
       </c>
       <c r="C30">
-        <v>0.795</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D30">
-        <v>0.9399999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="E30">
         <v>0.97</v>
       </c>
       <c r="F30">
-        <v>0.9438</v>
+        <v>0.9560999999999998</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1354,25 +1360,25 @@
         <v>0.675</v>
       </c>
       <c r="D31">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
       <c r="E31">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F31">
-        <v>0.9051000000000002</v>
+        <v>0.8790000000000002</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>0.8667</v>
+        <v>0.825</v>
       </c>
       <c r="I31">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
       <c r="J31">
-        <v>0.8667</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1381,19 +1387,19 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>0.89</v>
+        <v>0.875</v>
       </c>
       <c r="D32">
+        <v>0.93</v>
+      </c>
+      <c r="E32">
         <v>0.96</v>
       </c>
-      <c r="E32">
-        <v>0.995</v>
-      </c>
       <c r="F32">
-        <v>0.9601999999999998</v>
+        <v>0.9294999999999998</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1432,16 +1438,16 @@
         <v>26</v>
       </c>
       <c r="C34">
-        <v>0.35</v>
+        <v>0.335</v>
       </c>
       <c r="D34">
-        <v>0.925</v>
+        <v>0.915</v>
       </c>
       <c r="E34">
         <v>0.985</v>
       </c>
       <c r="F34">
-        <v>0.9279999999999999</v>
+        <v>0.9143000000000002</v>
       </c>
       <c r="G34" t="s">
         <v>58</v>
@@ -1453,16 +1459,16 @@
         <v>27</v>
       </c>
       <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
         <v>0.83</v>
       </c>
-      <c r="D35">
-        <v>0.85</v>
-      </c>
       <c r="E35">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="F35">
-        <v>0.8433999999999999</v>
+        <v>0.829</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
@@ -1474,16 +1480,16 @@
         <v>28</v>
       </c>
       <c r="C36">
-        <v>0.885</v>
+        <v>0.895</v>
       </c>
       <c r="D36">
-        <v>0.925</v>
+        <v>0.915</v>
       </c>
       <c r="E36">
-        <v>0.925</v>
+        <v>0.92</v>
       </c>
       <c r="F36">
-        <v>0.9247999999999998</v>
+        <v>0.9126000000000002</v>
       </c>
       <c r="G36" t="s">
         <v>58</v>
@@ -1495,28 +1501,28 @@
         <v>29</v>
       </c>
       <c r="C37">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="D37">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="E37">
-        <v>0.88</v>
+        <v>0.865</v>
       </c>
       <c r="F37">
-        <v>0.8726999999999999</v>
+        <v>0.8575999999999999</v>
       </c>
       <c r="G37" t="s">
         <v>60</v>
       </c>
       <c r="H37">
-        <v>0.7064</v>
+        <v>0.5402</v>
       </c>
       <c r="I37">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="J37">
-        <v>0.4415</v>
+        <v>0.3178</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1536,7 +1542,7 @@
         <v>0.99</v>
       </c>
       <c r="F38">
-        <v>0.9904000000000002</v>
+        <v>0.9897</v>
       </c>
       <c r="G38" t="s">
         <v>53</v>
@@ -1557,7 +1563,7 @@
         <v>0.99</v>
       </c>
       <c r="F39">
-        <v>0.9906</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="G39" t="s">
         <v>53</v>
@@ -1587,10 +1593,10 @@
         <v>0.985</v>
       </c>
       <c r="F40">
-        <v>0.9627999999999999</v>
+        <v>0.9662000000000001</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1608,10 +1614,10 @@
         <v>0.975</v>
       </c>
       <c r="F41">
-        <v>0.9750000000000001</v>
+        <v>0.9751000000000002</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1629,10 +1635,10 @@
         <v>0.945</v>
       </c>
       <c r="F42">
-        <v>0.9063000000000001</v>
+        <v>0.9037999999999999</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1650,7 +1656,7 @@
         <v>0.89</v>
       </c>
       <c r="F43">
-        <v>0.8655999999999999</v>
+        <v>0.8668</v>
       </c>
       <c r="G43" t="s">
         <v>51</v>
@@ -1680,10 +1686,10 @@
         <v>0.97</v>
       </c>
       <c r="F44">
-        <v>0.9629999999999999</v>
+        <v>0.9609000000000001</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1731,10 +1737,10 @@
         <v>0.98</v>
       </c>
       <c r="F46">
-        <v>0.931</v>
+        <v>0.9319999999999999</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1752,10 +1758,10 @@
         <v>0.83</v>
       </c>
       <c r="F47">
-        <v>0.8244</v>
+        <v>0.8248999999999999</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1773,10 +1779,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="F48">
-        <v>0.9362000000000001</v>
+        <v>0.9325000000000001</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1794,10 +1800,10 @@
         <v>0.9</v>
       </c>
       <c r="F49">
-        <v>0.8937000000000002</v>
+        <v>0.8931000000000001</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H49">
         <v>0.8287</v>
@@ -1826,7 +1832,7 @@
         <v>0.99</v>
       </c>
       <c r="F50">
-        <v>0.9891000000000001</v>
+        <v>0.9890000000000001</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
@@ -1847,10 +1853,10 @@
         <v>0.86</v>
       </c>
       <c r="F51">
-        <v>0.8628999999999998</v>
+        <v>0.8631</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>0.7993</v>
@@ -1877,10 +1883,10 @@
         <v>0.98</v>
       </c>
       <c r="F52">
-        <v>0.9683999999999999</v>
+        <v>0.9651999999999998</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1898,7 +1904,7 @@
         <v>0.96</v>
       </c>
       <c r="F53">
-        <v>0.8884000000000001</v>
+        <v>0.8822000000000001</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -1919,10 +1925,10 @@
         <v>0.855</v>
       </c>
       <c r="F54">
-        <v>0.7877999999999998</v>
+        <v>0.7947000000000003</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -1940,10 +1946,10 @@
         <v>0.44</v>
       </c>
       <c r="F55">
-        <v>0.3956999999999999</v>
+        <v>0.4027000000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55">
         <v>0.2485</v>
@@ -1970,10 +1976,10 @@
         <v>0.905</v>
       </c>
       <c r="F56">
-        <v>0.7854000000000002</v>
+        <v>0.7815000000000002</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2021,10 +2027,10 @@
         <v>0.985</v>
       </c>
       <c r="F58">
-        <v>0.9342</v>
+        <v>0.9401</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2042,10 +2048,10 @@
         <v>0.765</v>
       </c>
       <c r="F59">
-        <v>0.7605999999999998</v>
+        <v>0.7597000000000002</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2063,10 +2069,10 @@
         <v>0.88</v>
       </c>
       <c r="F60">
-        <v>0.8797000000000001</v>
+        <v>0.8832000000000002</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2084,10 +2090,10 @@
         <v>0.95</v>
       </c>
       <c r="F61">
-        <v>0.9457000000000001</v>
+        <v>0.9451999999999998</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H61">
         <v>0.755</v>
@@ -2116,10 +2122,10 @@
         <v>0.995</v>
       </c>
       <c r="F62">
-        <v>0.9951000000000001</v>
+        <v>0.9953</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2137,10 +2143,10 @@
         <v>0.98</v>
       </c>
       <c r="F63">
-        <v>0.9808000000000002</v>
+        <v>0.9809</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H63">
         <v>0.9693000000000001</v>
@@ -2167,7 +2173,7 @@
         <v>0.99</v>
       </c>
       <c r="F64">
-        <v>0.9844000000000002</v>
+        <v>0.9846000000000003</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -2188,10 +2194,10 @@
         <v>0.995</v>
       </c>
       <c r="F65">
-        <v>0.9941999999999999</v>
+        <v>0.9954</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2209,7 +2215,7 @@
         <v>0.92</v>
       </c>
       <c r="F66">
-        <v>0.8855000000000001</v>
+        <v>0.8884000000000002</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -2230,10 +2236,10 @@
         <v>0.885</v>
       </c>
       <c r="F67">
-        <v>0.8557999999999999</v>
+        <v>0.8541999999999998</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0.7277</v>
@@ -2260,10 +2266,10 @@
         <v>0.975</v>
       </c>
       <c r="F68">
-        <v>0.9603</v>
+        <v>0.9604999999999998</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2311,10 +2317,10 @@
         <v>0.99</v>
       </c>
       <c r="F70">
-        <v>0.9195000000000002</v>
+        <v>0.9225</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2332,10 +2338,10 @@
         <v>0.92</v>
       </c>
       <c r="F71">
-        <v>0.9039000000000001</v>
+        <v>0.9035</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2353,10 +2359,10 @@
         <v>0.95</v>
       </c>
       <c r="F72">
-        <v>0.9379999999999999</v>
+        <v>0.9396999999999999</v>
       </c>
       <c r="G72" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2374,10 +2380,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F73">
-        <v>0.9342</v>
+        <v>0.9343</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H73">
         <v>0.8270999999999999</v>
@@ -2397,19 +2403,19 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>0.985</v>
+        <v>0.99</v>
       </c>
       <c r="D74">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0.9954</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2418,28 +2424,28 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D75">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="E75">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F75">
-        <v>0.8135000000000001</v>
+        <v>0.8506999999999999</v>
       </c>
       <c r="G75" t="s">
         <v>74</v>
       </c>
       <c r="H75">
-        <v>0.7765</v>
+        <v>0.8119</v>
       </c>
       <c r="I75">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="J75">
-        <v>0.7765</v>
+        <v>0.8119</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2448,19 +2454,19 @@
         <v>20</v>
       </c>
       <c r="C76">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="D76">
-        <v>0.945</v>
+        <v>0.96</v>
       </c>
       <c r="E76">
-        <v>0.955</v>
+        <v>0.97</v>
       </c>
       <c r="F76">
-        <v>0.9468</v>
+        <v>0.9611999999999999</v>
       </c>
       <c r="G76" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2469,16 +2475,16 @@
         <v>21</v>
       </c>
       <c r="C77">
-        <v>0.63</v>
+        <v>0.645</v>
       </c>
       <c r="D77">
-        <v>0.63</v>
+        <v>0.645</v>
       </c>
       <c r="E77">
-        <v>0.63</v>
+        <v>0.645</v>
       </c>
       <c r="F77">
-        <v>0.6294</v>
+        <v>0.6445000000000001</v>
       </c>
       <c r="G77" t="s">
         <v>75</v>
@@ -2490,19 +2496,19 @@
         <v>22</v>
       </c>
       <c r="C78">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="D78">
-        <v>0.765</v>
+        <v>0.79</v>
       </c>
       <c r="E78">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F78">
-        <v>0.7664000000000002</v>
+        <v>0.7907999999999999</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2514,25 +2520,25 @@
         <v>0.555</v>
       </c>
       <c r="D79">
-        <v>0.715</v>
+        <v>0.72</v>
       </c>
       <c r="E79">
-        <v>0.745</v>
+        <v>0.75</v>
       </c>
       <c r="F79">
-        <v>0.7081000000000002</v>
+        <v>0.7194000000000002</v>
       </c>
       <c r="G79" t="s">
         <v>76</v>
       </c>
       <c r="H79">
-        <v>0.5516</v>
+        <v>0.5823</v>
       </c>
       <c r="I79">
-        <v>0.715</v>
+        <v>0.72</v>
       </c>
       <c r="J79">
-        <v>0.5516</v>
+        <v>0.5823</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2541,19 +2547,19 @@
         <v>24</v>
       </c>
       <c r="C80">
-        <v>0.715</v>
+        <v>0.735</v>
       </c>
       <c r="D80">
-        <v>0.795</v>
+        <v>0.84</v>
       </c>
       <c r="E80">
-        <v>0.885</v>
+        <v>0.92</v>
       </c>
       <c r="F80">
-        <v>0.7933000000000001</v>
+        <v>0.8413999999999998</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2562,28 +2568,28 @@
         <v>25</v>
       </c>
       <c r="C81">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D81">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E81">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F81">
-        <v>0.9907</v>
+        <v>0.9806000000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H81">
-        <v>0.9968</v>
+        <v>0.9935</v>
       </c>
       <c r="I81">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J81">
-        <v>0.6645</v>
+        <v>0.6623</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2592,19 +2598,19 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="D82">
-        <v>0.925</v>
+        <v>0.91</v>
       </c>
       <c r="E82">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="F82">
-        <v>0.9231000000000001</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="G82" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2613,19 +2619,19 @@
         <v>27</v>
       </c>
       <c r="C83">
-        <v>0.63</v>
+        <v>0.635</v>
       </c>
       <c r="D83">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="E83">
         <v>0.755</v>
       </c>
       <c r="F83">
-        <v>0.7487999999999999</v>
+        <v>0.7491000000000001</v>
       </c>
       <c r="G83" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2634,19 +2640,19 @@
         <v>28</v>
       </c>
       <c r="C84">
-        <v>0.67</v>
+        <v>0.695</v>
       </c>
       <c r="D84">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E84">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F84">
-        <v>0.8937</v>
+        <v>0.8719000000000001</v>
       </c>
       <c r="G84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2655,28 +2661,28 @@
         <v>29</v>
       </c>
       <c r="C85">
-        <v>0.755</v>
+        <v>0.775</v>
       </c>
       <c r="D85">
-        <v>0.795</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F85">
-        <v>0.7927000000000001</v>
+        <v>0.8094</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H85">
-        <v>0.6876</v>
+        <v>0.663</v>
       </c>
       <c r="I85">
-        <v>0.795</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J85">
-        <v>0.3006</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2687,19 +2693,19 @@
         <v>18</v>
       </c>
       <c r="C86">
-        <v>0.985</v>
+        <v>0.99</v>
       </c>
       <c r="D86">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="E86">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="F86">
-        <v>0.9905000000000002</v>
+        <v>0.9952</v>
       </c>
       <c r="G86" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2708,28 +2714,28 @@
         <v>19</v>
       </c>
       <c r="C87">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
       <c r="D87">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
       <c r="E87">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
       <c r="F87">
-        <v>0.9906</v>
+        <v>0.9844000000000003</v>
       </c>
       <c r="G87" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>0.9847</v>
+        <v>0.9772</v>
       </c>
       <c r="I87">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
       <c r="J87">
-        <v>0.9847</v>
+        <v>0.9772</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2738,19 +2744,19 @@
         <v>20</v>
       </c>
       <c r="C88">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="D88">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F88">
-        <v>0.9621</v>
+        <v>0.9684</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2768,7 +2774,7 @@
         <v>0.985</v>
       </c>
       <c r="F89">
-        <v>0.9843000000000002</v>
+        <v>0.9853000000000002</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -2780,19 +2786,19 @@
         <v>22</v>
       </c>
       <c r="C90">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D90">
-        <v>0.915</v>
+        <v>0.925</v>
       </c>
       <c r="E90">
         <v>0.95</v>
       </c>
       <c r="F90">
-        <v>0.9162</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2801,28 +2807,28 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>0.67</v>
+        <v>0.655</v>
       </c>
       <c r="D91">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="E91">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
       <c r="F91">
-        <v>0.8697</v>
+        <v>0.8600999999999999</v>
       </c>
       <c r="G91" t="s">
         <v>60</v>
       </c>
       <c r="H91">
-        <v>0.7685999999999999</v>
+        <v>0.7325</v>
       </c>
       <c r="I91">
-        <v>0.87</v>
+        <v>0.855</v>
       </c>
       <c r="J91">
-        <v>0.7685999999999999</v>
+        <v>0.7325</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -2831,19 +2837,19 @@
         <v>24</v>
       </c>
       <c r="C92">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="D92">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E92">
         <v>0.96</v>
       </c>
       <c r="F92">
-        <v>0.9475</v>
+        <v>0.9386999999999999</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2861,10 +2867,10 @@
         <v>0.995</v>
       </c>
       <c r="F93">
-        <v>0.9947999999999999</v>
+        <v>0.9957999999999998</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H93">
         <v>0.9984</v>
@@ -2882,16 +2888,16 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D94">
-        <v>0.905</v>
+        <v>0.93</v>
       </c>
       <c r="E94">
         <v>0.97</v>
       </c>
       <c r="F94">
-        <v>0.9070999999999999</v>
+        <v>0.9292999999999999</v>
       </c>
       <c r="G94" t="s">
         <v>56</v>
@@ -2903,19 +2909,19 @@
         <v>27</v>
       </c>
       <c r="C95">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D95">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="E95">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="F95">
-        <v>0.8289</v>
+        <v>0.8351999999999998</v>
       </c>
       <c r="G95" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -2927,16 +2933,16 @@
         <v>0.885</v>
       </c>
       <c r="D96">
-        <v>0.945</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E96">
-        <v>0.955</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F96">
-        <v>0.9451999999999999</v>
+        <v>0.9346</v>
       </c>
       <c r="G96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2948,25 +2954,25 @@
         <v>0.87</v>
       </c>
       <c r="D97">
-        <v>0.925</v>
+        <v>0.915</v>
       </c>
       <c r="E97">
         <v>0.925</v>
       </c>
       <c r="F97">
-        <v>0.9267999999999997</v>
+        <v>0.9113000000000001</v>
       </c>
       <c r="G97" t="s">
         <v>58</v>
       </c>
       <c r="H97">
-        <v>0.8814</v>
+        <v>0.7731</v>
       </c>
       <c r="I97">
-        <v>0.925</v>
+        <v>0.915</v>
       </c>
       <c r="J97">
-        <v>0.678</v>
+        <v>0.5154</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2986,7 +2992,7 @@
         <v>0.99</v>
       </c>
       <c r="F98">
-        <v>0.9891000000000001</v>
+        <v>0.9916999999999999</v>
       </c>
       <c r="G98" t="s">
         <v>53</v>
@@ -3007,10 +3013,10 @@
         <v>0.825</v>
       </c>
       <c r="F99">
-        <v>0.8248999999999999</v>
+        <v>0.8249</v>
       </c>
       <c r="G99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H99">
         <v>0.7818000000000001</v>
@@ -3037,10 +3043,10 @@
         <v>0.985</v>
       </c>
       <c r="F100">
-        <v>0.9644999999999999</v>
+        <v>0.9638</v>
       </c>
       <c r="G100" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3058,10 +3064,10 @@
         <v>0.715</v>
       </c>
       <c r="F101">
-        <v>0.7181999999999999</v>
+        <v>0.7164999999999999</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3079,10 +3085,10 @@
         <v>0.885</v>
       </c>
       <c r="F102">
-        <v>0.7998000000000001</v>
+        <v>0.7958</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3100,10 +3106,10 @@
         <v>0.51</v>
       </c>
       <c r="F103">
-        <v>0.4922999999999999</v>
+        <v>0.4924999999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H103">
         <v>0.3244</v>
@@ -3130,10 +3136,10 @@
         <v>0.915</v>
       </c>
       <c r="F104">
-        <v>0.7553</v>
+        <v>0.7640000000000002</v>
       </c>
       <c r="G104" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3181,10 +3187,10 @@
         <v>0.98</v>
       </c>
       <c r="F106">
-        <v>0.9294000000000001</v>
+        <v>0.9306</v>
       </c>
       <c r="G106" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3202,10 +3208,10 @@
         <v>0.77</v>
       </c>
       <c r="F107">
-        <v>0.7612000000000001</v>
+        <v>0.7647999999999999</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3223,10 +3229,10 @@
         <v>0.835</v>
       </c>
       <c r="F108">
-        <v>0.8257999999999999</v>
+        <v>0.8297999999999999</v>
       </c>
       <c r="G108" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3244,10 +3250,10 @@
         <v>0.87</v>
       </c>
       <c r="F109">
-        <v>0.8604999999999999</v>
+        <v>0.8639</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0.7046</v>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -672,7 +672,7 @@
         <v>0.985</v>
       </c>
       <c r="F2">
-        <v>0.9833000000000002</v>
+        <v>0.9853000000000003</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -693,7 +693,7 @@
         <v>0.76</v>
       </c>
       <c r="F3">
-        <v>0.7576000000000001</v>
+        <v>0.7572</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -723,7 +723,7 @@
         <v>0.965</v>
       </c>
       <c r="F4">
-        <v>0.9490999999999998</v>
+        <v>0.9491999999999998</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -744,7 +744,7 @@
         <v>0.86</v>
       </c>
       <c r="F5">
-        <v>0.8600000000000001</v>
+        <v>0.8609</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -765,7 +765,7 @@
         <v>0.805</v>
       </c>
       <c r="F6">
-        <v>0.7423000000000002</v>
+        <v>0.7502999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -786,7 +786,7 @@
         <v>0.59</v>
       </c>
       <c r="F7">
-        <v>0.5797</v>
+        <v>0.5731000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -816,7 +816,7 @@
         <v>0.91</v>
       </c>
       <c r="F8">
-        <v>0.8031</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -837,7 +837,7 @@
         <v>0.955</v>
       </c>
       <c r="F9">
-        <v>0.9551999999999997</v>
+        <v>0.9576</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -867,7 +867,7 @@
         <v>0.975</v>
       </c>
       <c r="F10">
-        <v>0.8777000000000001</v>
+        <v>0.8830000000000001</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -888,7 +888,7 @@
         <v>0.73</v>
       </c>
       <c r="F11">
-        <v>0.7262</v>
+        <v>0.7252000000000001</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -909,7 +909,7 @@
         <v>0.85</v>
       </c>
       <c r="F12">
-        <v>0.8411</v>
+        <v>0.8436999999999999</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -930,7 +930,7 @@
         <v>0.725</v>
       </c>
       <c r="F13">
-        <v>0.7133999999999999</v>
+        <v>0.7196000000000001</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
@@ -962,7 +962,7 @@
         <v>0.985</v>
       </c>
       <c r="F14">
-        <v>0.9845</v>
+        <v>0.9866000000000003</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -983,7 +983,7 @@
         <v>0.68</v>
       </c>
       <c r="F15">
-        <v>0.6768</v>
+        <v>0.6784</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
@@ -1013,7 +1013,7 @@
         <v>0.97</v>
       </c>
       <c r="F16">
-        <v>0.9464999999999999</v>
+        <v>0.9502999999999999</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -1034,7 +1034,7 @@
         <v>0.885</v>
       </c>
       <c r="F17">
-        <v>0.8837</v>
+        <v>0.8843999999999999</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1055,7 +1055,7 @@
         <v>0.805</v>
       </c>
       <c r="F18">
-        <v>0.7308000000000001</v>
+        <v>0.7293999999999998</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -1076,7 +1076,7 @@
         <v>0.575</v>
       </c>
       <c r="F19">
-        <v>0.5552</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -1106,7 +1106,7 @@
         <v>0.875</v>
       </c>
       <c r="F20">
-        <v>0.7874000000000001</v>
+        <v>0.7835</v>
       </c>
       <c r="G20" t="s">
         <v>48</v>
@@ -1127,7 +1127,7 @@
         <v>0.955</v>
       </c>
       <c r="F21">
-        <v>0.9542999999999999</v>
+        <v>0.9545999999999998</v>
       </c>
       <c r="G21" t="s">
         <v>39</v>
@@ -1157,7 +1157,7 @@
         <v>0.96</v>
       </c>
       <c r="F22">
-        <v>0.8967000000000001</v>
+        <v>0.8993000000000001</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
@@ -1178,7 +1178,7 @@
         <v>0.775</v>
       </c>
       <c r="F23">
-        <v>0.7677</v>
+        <v>0.7698999999999999</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
@@ -1199,7 +1199,7 @@
         <v>0.87</v>
       </c>
       <c r="F24">
-        <v>0.8647999999999999</v>
+        <v>0.8649</v>
       </c>
       <c r="G24" t="s">
         <v>51</v>
@@ -1220,7 +1220,7 @@
         <v>0.72</v>
       </c>
       <c r="F25">
-        <v>0.7084999999999998</v>
+        <v>0.7117</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
@@ -1252,7 +1252,7 @@
         <v>0.99</v>
       </c>
       <c r="F26">
-        <v>0.99</v>
+        <v>0.9891000000000002</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -1273,7 +1273,7 @@
         <v>0.99</v>
       </c>
       <c r="F27">
-        <v>0.9906999999999999</v>
+        <v>0.9884000000000001</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -1303,7 +1303,7 @@
         <v>0.98</v>
       </c>
       <c r="F28">
-        <v>0.9661</v>
+        <v>0.9645999999999998</v>
       </c>
       <c r="G28" t="s">
         <v>54</v>
@@ -1324,7 +1324,7 @@
         <v>0.97</v>
       </c>
       <c r="F29">
-        <v>0.9716999999999999</v>
+        <v>0.9708000000000001</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
@@ -1345,7 +1345,7 @@
         <v>0.97</v>
       </c>
       <c r="F30">
-        <v>0.9560999999999998</v>
+        <v>0.9558</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -1366,7 +1366,7 @@
         <v>0.9</v>
       </c>
       <c r="F31">
-        <v>0.8790000000000002</v>
+        <v>0.8778</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -1396,7 +1396,7 @@
         <v>0.96</v>
       </c>
       <c r="F32">
-        <v>0.9294999999999998</v>
+        <v>0.9329000000000001</v>
       </c>
       <c r="G32" t="s">
         <v>56</v>
@@ -1447,7 +1447,7 @@
         <v>0.985</v>
       </c>
       <c r="F34">
-        <v>0.9143000000000002</v>
+        <v>0.9158999999999999</v>
       </c>
       <c r="G34" t="s">
         <v>58</v>
@@ -1468,7 +1468,7 @@
         <v>0.84</v>
       </c>
       <c r="F35">
-        <v>0.829</v>
+        <v>0.8313999999999999</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
@@ -1489,7 +1489,7 @@
         <v>0.92</v>
       </c>
       <c r="F36">
-        <v>0.9126000000000002</v>
+        <v>0.9129</v>
       </c>
       <c r="G36" t="s">
         <v>58</v>
@@ -1510,7 +1510,7 @@
         <v>0.865</v>
       </c>
       <c r="F37">
-        <v>0.8575999999999999</v>
+        <v>0.8609999999999998</v>
       </c>
       <c r="G37" t="s">
         <v>60</v>
@@ -1542,7 +1542,7 @@
         <v>0.99</v>
       </c>
       <c r="F38">
-        <v>0.9897</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="s">
         <v>53</v>
@@ -1563,7 +1563,7 @@
         <v>0.99</v>
       </c>
       <c r="F39">
-        <v>0.9900000000000001</v>
+        <v>0.9885999999999998</v>
       </c>
       <c r="G39" t="s">
         <v>53</v>
@@ -1593,7 +1593,7 @@
         <v>0.985</v>
       </c>
       <c r="F40">
-        <v>0.9662000000000001</v>
+        <v>0.9632000000000001</v>
       </c>
       <c r="G40" t="s">
         <v>54</v>
@@ -1614,7 +1614,7 @@
         <v>0.975</v>
       </c>
       <c r="F41">
-        <v>0.9751000000000002</v>
+        <v>0.9729000000000001</v>
       </c>
       <c r="G41" t="s">
         <v>61</v>
@@ -1635,7 +1635,7 @@
         <v>0.945</v>
       </c>
       <c r="F42">
-        <v>0.9037999999999999</v>
+        <v>0.9022</v>
       </c>
       <c r="G42" t="s">
         <v>62</v>
@@ -1656,7 +1656,7 @@
         <v>0.89</v>
       </c>
       <c r="F43">
-        <v>0.8668</v>
+        <v>0.8623999999999999</v>
       </c>
       <c r="G43" t="s">
         <v>51</v>
@@ -1686,7 +1686,7 @@
         <v>0.97</v>
       </c>
       <c r="F44">
-        <v>0.9609000000000001</v>
+        <v>0.9613999999999998</v>
       </c>
       <c r="G44" t="s">
         <v>63</v>
@@ -1737,7 +1737,7 @@
         <v>0.98</v>
       </c>
       <c r="F46">
-        <v>0.9319999999999999</v>
+        <v>0.9309999999999999</v>
       </c>
       <c r="G46" t="s">
         <v>56</v>
@@ -1758,7 +1758,7 @@
         <v>0.83</v>
       </c>
       <c r="F47">
-        <v>0.8248999999999999</v>
+        <v>0.8239</v>
       </c>
       <c r="G47" t="s">
         <v>64</v>
@@ -1779,7 +1779,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="F48">
-        <v>0.9325000000000001</v>
+        <v>0.9291999999999999</v>
       </c>
       <c r="G48" t="s">
         <v>56</v>
@@ -1800,7 +1800,7 @@
         <v>0.9</v>
       </c>
       <c r="F49">
-        <v>0.8931000000000001</v>
+        <v>0.8948</v>
       </c>
       <c r="G49" t="s">
         <v>65</v>
@@ -1832,7 +1832,7 @@
         <v>0.99</v>
       </c>
       <c r="F50">
-        <v>0.9890000000000001</v>
+        <v>0.9911999999999999</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
@@ -1853,7 +1853,7 @@
         <v>0.86</v>
       </c>
       <c r="F51">
-        <v>0.8631</v>
+        <v>0.8525999999999998</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
@@ -1883,7 +1883,7 @@
         <v>0.98</v>
       </c>
       <c r="F52">
-        <v>0.9651999999999998</v>
+        <v>0.9672999999999999</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -1904,7 +1904,7 @@
         <v>0.96</v>
       </c>
       <c r="F53">
-        <v>0.8822000000000001</v>
+        <v>0.8798</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -1925,7 +1925,7 @@
         <v>0.855</v>
       </c>
       <c r="F54">
-        <v>0.7947000000000003</v>
+        <v>0.7943000000000002</v>
       </c>
       <c r="G54" t="s">
         <v>66</v>
@@ -1946,7 +1946,7 @@
         <v>0.44</v>
       </c>
       <c r="F55">
-        <v>0.4027000000000001</v>
+        <v>0.402</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
@@ -1976,7 +1976,7 @@
         <v>0.905</v>
       </c>
       <c r="F56">
-        <v>0.7815000000000002</v>
+        <v>0.7863</v>
       </c>
       <c r="G56" t="s">
         <v>48</v>
@@ -2027,7 +2027,7 @@
         <v>0.985</v>
       </c>
       <c r="F58">
-        <v>0.9401</v>
+        <v>0.9340999999999999</v>
       </c>
       <c r="G58" t="s">
         <v>68</v>
@@ -2048,7 +2048,7 @@
         <v>0.765</v>
       </c>
       <c r="F59">
-        <v>0.7597000000000002</v>
+        <v>0.7627000000000002</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -2069,7 +2069,7 @@
         <v>0.88</v>
       </c>
       <c r="F60">
-        <v>0.8832000000000002</v>
+        <v>0.8806999999999999</v>
       </c>
       <c r="G60" t="s">
         <v>40</v>
@@ -2090,7 +2090,7 @@
         <v>0.95</v>
       </c>
       <c r="F61">
-        <v>0.9451999999999998</v>
+        <v>0.9475</v>
       </c>
       <c r="G61" t="s">
         <v>69</v>
@@ -2122,7 +2122,7 @@
         <v>0.995</v>
       </c>
       <c r="F62">
-        <v>0.9953</v>
+        <v>0.9940999999999999</v>
       </c>
       <c r="G62" t="s">
         <v>70</v>
@@ -2143,7 +2143,7 @@
         <v>0.98</v>
       </c>
       <c r="F63">
-        <v>0.9809</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="G63" t="s">
         <v>71</v>
@@ -2173,7 +2173,7 @@
         <v>0.99</v>
       </c>
       <c r="F64">
-        <v>0.9846000000000003</v>
+        <v>0.9848</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -2194,7 +2194,7 @@
         <v>0.995</v>
       </c>
       <c r="F65">
-        <v>0.9954</v>
+        <v>0.9948999999999999</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -2215,7 +2215,7 @@
         <v>0.92</v>
       </c>
       <c r="F66">
-        <v>0.8884000000000002</v>
+        <v>0.8896999999999999</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -2236,7 +2236,7 @@
         <v>0.885</v>
       </c>
       <c r="F67">
-        <v>0.8541999999999998</v>
+        <v>0.8611000000000001</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -2266,7 +2266,7 @@
         <v>0.975</v>
       </c>
       <c r="F68">
-        <v>0.9604999999999998</v>
+        <v>0.9609000000000002</v>
       </c>
       <c r="G68" t="s">
         <v>63</v>
@@ -2317,7 +2317,7 @@
         <v>0.99</v>
       </c>
       <c r="F70">
-        <v>0.9225</v>
+        <v>0.9198000000000001</v>
       </c>
       <c r="G70" t="s">
         <v>72</v>
@@ -2338,7 +2338,7 @@
         <v>0.92</v>
       </c>
       <c r="F71">
-        <v>0.9035</v>
+        <v>0.9054000000000001</v>
       </c>
       <c r="G71" t="s">
         <v>62</v>
@@ -2359,7 +2359,7 @@
         <v>0.95</v>
       </c>
       <c r="F72">
-        <v>0.9396999999999999</v>
+        <v>0.9394</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2380,7 +2380,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F73">
-        <v>0.9343</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="G73" t="s">
         <v>68</v>
@@ -2433,7 +2433,7 @@
         <v>0.85</v>
       </c>
       <c r="F75">
-        <v>0.8506999999999999</v>
+        <v>0.8532999999999998</v>
       </c>
       <c r="G75" t="s">
         <v>74</v>
@@ -2463,7 +2463,7 @@
         <v>0.97</v>
       </c>
       <c r="F76">
-        <v>0.9611999999999999</v>
+        <v>0.9583999999999997</v>
       </c>
       <c r="G76" t="s">
         <v>63</v>
@@ -2484,7 +2484,7 @@
         <v>0.645</v>
       </c>
       <c r="F77">
-        <v>0.6445000000000001</v>
+        <v>0.6498</v>
       </c>
       <c r="G77" t="s">
         <v>75</v>
@@ -2505,7 +2505,7 @@
         <v>0.85</v>
       </c>
       <c r="F78">
-        <v>0.7907999999999999</v>
+        <v>0.7891999999999999</v>
       </c>
       <c r="G78" t="s">
         <v>66</v>
@@ -2526,7 +2526,7 @@
         <v>0.75</v>
       </c>
       <c r="F79">
-        <v>0.7194000000000002</v>
+        <v>0.7212</v>
       </c>
       <c r="G79" t="s">
         <v>76</v>
@@ -2556,7 +2556,7 @@
         <v>0.92</v>
       </c>
       <c r="F80">
-        <v>0.8413999999999998</v>
+        <v>0.8359000000000002</v>
       </c>
       <c r="G80" t="s">
         <v>77</v>
@@ -2577,7 +2577,7 @@
         <v>0.98</v>
       </c>
       <c r="F81">
-        <v>0.9806000000000001</v>
+        <v>0.9784000000000002</v>
       </c>
       <c r="G81" t="s">
         <v>71</v>
@@ -2607,7 +2607,7 @@
         <v>0.97</v>
       </c>
       <c r="F82">
-        <v>0.9118000000000001</v>
+        <v>0.9086000000000002</v>
       </c>
       <c r="G82" t="s">
         <v>78</v>
@@ -2628,7 +2628,7 @@
         <v>0.755</v>
       </c>
       <c r="F83">
-        <v>0.7491000000000001</v>
+        <v>0.7449999999999999</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -2649,7 +2649,7 @@
         <v>0.88</v>
       </c>
       <c r="F84">
-        <v>0.8719000000000001</v>
+        <v>0.8706999999999999</v>
       </c>
       <c r="G84" t="s">
         <v>79</v>
@@ -2670,7 +2670,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="F85">
-        <v>0.8094</v>
+        <v>0.8097999999999999</v>
       </c>
       <c r="G85" t="s">
         <v>80</v>
@@ -2702,7 +2702,7 @@
         <v>0.995</v>
       </c>
       <c r="F86">
-        <v>0.9952</v>
+        <v>0.995</v>
       </c>
       <c r="G86" t="s">
         <v>70</v>
@@ -2723,7 +2723,7 @@
         <v>0.985</v>
       </c>
       <c r="F87">
-        <v>0.9844000000000003</v>
+        <v>0.9846</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -2753,7 +2753,7 @@
         <v>0.98</v>
       </c>
       <c r="F88">
-        <v>0.9684</v>
+        <v>0.9705000000000001</v>
       </c>
       <c r="G88" t="s">
         <v>55</v>
@@ -2774,7 +2774,7 @@
         <v>0.985</v>
       </c>
       <c r="F89">
-        <v>0.9853000000000002</v>
+        <v>0.9854000000000002</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -2795,7 +2795,7 @@
         <v>0.95</v>
       </c>
       <c r="F90">
-        <v>0.9248000000000001</v>
+        <v>0.9240999999999999</v>
       </c>
       <c r="G90" t="s">
         <v>81</v>
@@ -2816,7 +2816,7 @@
         <v>0.89</v>
       </c>
       <c r="F91">
-        <v>0.8600999999999999</v>
+        <v>0.8508999999999998</v>
       </c>
       <c r="G91" t="s">
         <v>60</v>
@@ -2846,7 +2846,7 @@
         <v>0.96</v>
       </c>
       <c r="F92">
-        <v>0.9386999999999999</v>
+        <v>0.9409000000000001</v>
       </c>
       <c r="G92" t="s">
         <v>73</v>
@@ -2867,7 +2867,7 @@
         <v>0.995</v>
       </c>
       <c r="F93">
-        <v>0.9957999999999998</v>
+        <v>0.9944</v>
       </c>
       <c r="G93" t="s">
         <v>70</v>
@@ -2897,7 +2897,7 @@
         <v>0.97</v>
       </c>
       <c r="F94">
-        <v>0.9292999999999999</v>
+        <v>0.9287000000000001</v>
       </c>
       <c r="G94" t="s">
         <v>56</v>
@@ -2918,7 +2918,7 @@
         <v>0.845</v>
       </c>
       <c r="F95">
-        <v>0.8351999999999998</v>
+        <v>0.8408</v>
       </c>
       <c r="G95" t="s">
         <v>77</v>
@@ -2939,7 +2939,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F96">
-        <v>0.9346</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G96" t="s">
         <v>68</v>
@@ -2960,7 +2960,7 @@
         <v>0.925</v>
       </c>
       <c r="F97">
-        <v>0.9113000000000001</v>
+        <v>0.9129</v>
       </c>
       <c r="G97" t="s">
         <v>58</v>
@@ -2992,7 +2992,7 @@
         <v>0.99</v>
       </c>
       <c r="F98">
-        <v>0.9916999999999999</v>
+        <v>0.9908999999999999</v>
       </c>
       <c r="G98" t="s">
         <v>53</v>
@@ -3013,7 +3013,7 @@
         <v>0.825</v>
       </c>
       <c r="F99">
-        <v>0.8249</v>
+        <v>0.823</v>
       </c>
       <c r="G99" t="s">
         <v>64</v>
@@ -3043,7 +3043,7 @@
         <v>0.985</v>
       </c>
       <c r="F100">
-        <v>0.9638</v>
+        <v>0.9619</v>
       </c>
       <c r="G100" t="s">
         <v>54</v>
@@ -3064,7 +3064,7 @@
         <v>0.715</v>
       </c>
       <c r="F101">
-        <v>0.7164999999999999</v>
+        <v>0.7138</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -3085,7 +3085,7 @@
         <v>0.885</v>
       </c>
       <c r="F102">
-        <v>0.7958</v>
+        <v>0.7927</v>
       </c>
       <c r="G102" t="s">
         <v>82</v>
@@ -3106,7 +3106,7 @@
         <v>0.51</v>
       </c>
       <c r="F103">
-        <v>0.4924999999999999</v>
+        <v>0.4893000000000001</v>
       </c>
       <c r="G103" t="s">
         <v>83</v>
@@ -3136,7 +3136,7 @@
         <v>0.915</v>
       </c>
       <c r="F104">
-        <v>0.7640000000000002</v>
+        <v>0.7554000000000001</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -3187,7 +3187,7 @@
         <v>0.98</v>
       </c>
       <c r="F106">
-        <v>0.9306</v>
+        <v>0.9314</v>
       </c>
       <c r="G106" t="s">
         <v>56</v>
@@ -3208,7 +3208,7 @@
         <v>0.77</v>
       </c>
       <c r="F107">
-        <v>0.7647999999999999</v>
+        <v>0.7610000000000001</v>
       </c>
       <c r="G107" t="s">
         <v>33</v>
@@ -3229,7 +3229,7 @@
         <v>0.835</v>
       </c>
       <c r="F108">
-        <v>0.8297999999999999</v>
+        <v>0.8258000000000001</v>
       </c>
       <c r="G108" t="s">
         <v>59</v>
@@ -3250,7 +3250,7 @@
         <v>0.87</v>
       </c>
       <c r="F109">
-        <v>0.8639</v>
+        <v>0.8623000000000001</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
